--- a/Excels/Consolidados.xlsx
+++ b/Excels/Consolidados.xlsx
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{7F1BB62D-9DBB-4C33-AE40-291F5FA0B02B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="F10" sqref="F10"/>
@@ -517,6 +517,42 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>8703.10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>8344.90</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>9503.10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -525,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{288D049C-057C-4291-9B6B-5CF76882757B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="J8" sqref="J8"/>
@@ -685,6 +721,74 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>6771.10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>7357.50</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>6201.80</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>6220.70</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
